--- a/assets/slides/acct3210/S5/E2.xlsx
+++ b/assets/slides/acct3210/S5/E2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shamussiothrun/ArthurHowardMorris.github.io/assets/slides/acct3210/S5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{240B8FDA-51C2-EE4E-8891-6F90EF771049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124F85C6-5D9B-284F-A0A3-66136D991573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25640" yWindow="600" windowWidth="25500" windowHeight="42500" activeTab="1" xr2:uid="{2705985C-3817-8A49-B643-240FB205B502}"/>
   </bookViews>
@@ -1857,7 +1857,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="A2" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/assets/slides/acct3210/S5/E2.xlsx
+++ b/assets/slides/acct3210/S5/E2.xlsx
@@ -1,56 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shamussiothrun/ArthurHowardMorris.github.io/assets/slides/acct3210/S5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmlaoibhtighe/ArthurHowardMorris.github.io/assets/slides/acct3210/S5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124F85C6-5D9B-284F-A0A3-66136D991573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FFEF86-3F71-714B-95F9-62E02D2B02DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25640" yWindow="600" windowWidth="25500" windowHeight="42500" activeTab="1" xr2:uid="{2705985C-3817-8A49-B643-240FB205B502}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20940" xr2:uid="{2705985C-3817-8A49-B643-240FB205B502}"/>
   </bookViews>
   <sheets>
-    <sheet name="Answer Report 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="E2 blank" sheetId="4" r:id="rId1"/>
+    <sheet name="E2 solution" sheetId="1" r:id="rId2"/>
+    <sheet name="Answer Report E2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet1!$B$3:$C$3</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'E2 blank'!$B$3:$C$3</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'E2 solution'!$B$3:$C$3</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet1!$B$10</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Sheet1!$B$9</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'E2 blank'!$B$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'E2 solution'!$B$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'E2 blank'!$B$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'E2 solution'!$B$9</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet1!$B$6</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'E2 blank'!$B$6</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'E2 solution'!$B$6</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Sheet1!$C$10</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Sheet1!$C$9</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'E2 blank'!$C$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'E2 solution'!$C$10</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'E2 blank'!$C$9</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'E2 solution'!$C$9</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>Choice variables</t>
   </si>
@@ -303,18 +336,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,7 +388,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$12</c:f>
+              <c:f>'E2 blank'!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -380,77 +411,17 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$B$32</c:f>
+              <c:f>'E2 blank'!$B$13:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A49-F646-9371-F3096833435E}"/>
+              <c16:uniqueId val="{00000000-4678-714B-9DB8-904E2962C3F8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -459,7 +430,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$12</c:f>
+              <c:f>'E2 blank'!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -482,7 +453,341 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$13:$C$32</c:f>
+              <c:f>'E2 blank'!$C$13:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4678-714B-9DB8-904E2962C3F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1737674703"/>
+        <c:axId val="1738340271"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1737674703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1738340271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1738340271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1737674703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E2 solution'!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>frame const</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'E2 solution'!$B$13:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A49-F646-9371-F3096833435E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E2 solution'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>roof const</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'E2 solution'!$C$13:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -766,6 +1071,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1282,7 +1627,566 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>494632</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>112295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>93579</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>48126</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4808AF37-9A9F-594F-9079-A4F4DB5F3A3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1324,9 +2228,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1364,7 +2268,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1470,7 +2374,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1612,13 +2516,564 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5104249-C563-C245-80DF-01B43C5C87B7}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431352B3-90D6-6C42-8907-460D7ACBF989}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8.1818181818181834</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.7272727272727266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>B3*B4</f>
+        <v>2454.545454545455</v>
+      </c>
+      <c r="C5">
+        <f>C3*C4</f>
+        <v>2694.545454545454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <f>SUM(B5:C5)</f>
+        <v>5149.090909090909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <f>4*B3+10*C3</f>
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <f>5*B3+7*C3</f>
+        <v>74</v>
+      </c>
+      <c r="C10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f>(80-4*A13)/10</f>
+        <v>7.6</v>
+      </c>
+      <c r="C13">
+        <f>(74-5*A13)/7</f>
+        <v>9.8571428571428577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:B32" si="0">(80-4*A14)/10</f>
+        <v>7.2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C32" si="1">(74-5*A14)/7</f>
+        <v>9.1428571428571423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>8.4285714285714288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>7.7142857142857144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>6.2857142857142856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>5.5714285714285712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>4.8571428571428568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>4.1428571428571432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>-0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>-0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>-1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>-2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>-3.7142857142857144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587B4097-1C5A-634F-B034-281F763A6B3D}">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -1719,10 +3174,10 @@
       <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <v>870</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="4">
         <v>5149.090909090909</v>
       </c>
     </row>
@@ -1755,10 +3210,10 @@
       <c r="C21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>1</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>8.1818181818181834</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -1772,10 +3227,10 @@
       <c r="C22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="4">
         <v>1</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="4">
         <v>4.7272727272727266</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -1814,7 +3269,7 @@
       <c r="C27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="6">
         <v>74</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -1834,7 +3289,7 @@
       <c r="C28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="4">
         <v>80</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -1850,379 +3305,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431352B3-90D6-6C42-8907-460D7ACBF989}">
-  <dimension ref="A1:C32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>8.1818181818181834</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4.7272727272727266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>300</v>
-      </c>
-      <c r="C4">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <f>B3*B4</f>
-        <v>2454.545454545455</v>
-      </c>
-      <c r="C5">
-        <f>C3*C4</f>
-        <v>2694.545454545454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <f>SUM(B5:C5)</f>
-        <v>5149.090909090909</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <f>4*B3+10*C3</f>
-        <v>80</v>
-      </c>
-      <c r="C9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <f>5*B3+7*C3</f>
-        <v>74</v>
-      </c>
-      <c r="C10">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <f>(80-4*A13)/10</f>
-        <v>7.6</v>
-      </c>
-      <c r="C13">
-        <f>(74-5*A13)/7</f>
-        <v>9.8571428571428577</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ref="B14:B32" si="0">(80-4*A14)/10</f>
-        <v>7.2</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ref="C14:C32" si="1">(74-5*A14)/7</f>
-        <v>9.1428571428571423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>6.8</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>8.4285714285714288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>7.7142857142857144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>5.6</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>6.2857142857142856</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>5.2</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>5.5714285714285712</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>4.8571428571428568</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>4.1428571428571432</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>3.4285714285714284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>11</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>2.7142857142857144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>13</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>1.2857142857142858</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>14</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="1"/>
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>15</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>-0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>16</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="1"/>
-        <v>-0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>17</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="1"/>
-        <v>-1.5714285714285714</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>18</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="1"/>
-        <v>-2.2857142857142856</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>19</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>20</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
-        <v>-3.7142857142857144</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/assets/slides/acct3210/S5/E2.xlsx
+++ b/assets/slides/acct3210/S5/E2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmlaoibhtighe/ArthurHowardMorris.github.io/assets/slides/acct3210/S5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FFEF86-3F71-714B-95F9-62E02D2B02DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C0365D-9A6F-DC40-9CF1-E227016D0371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20940" xr2:uid="{2705985C-3817-8A49-B643-240FB205B502}"/>
   </bookViews>
@@ -273,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +289,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -346,6 +352,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2526,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5104249-C563-C245-80DF-01B43C5C87B7}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C32"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2583,6 +2590,10 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">

--- a/assets/slides/acct3210/S5/E2.xlsx
+++ b/assets/slides/acct3210/S5/E2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmlaoibhtighe/ArthurHowardMorris.github.io/assets/slides/acct3210/S5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C0365D-9A6F-DC40-9CF1-E227016D0371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B452DE76-8950-1D41-8117-036FEC157967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20940" xr2:uid="{2705985C-3817-8A49-B643-240FB205B502}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>Choice variables</t>
   </si>
@@ -242,6 +242,42 @@
   </si>
   <si>
     <t>roof const</t>
+  </si>
+  <si>
+    <t>Step 1: Choice variables</t>
+  </si>
+  <si>
+    <t>&lt;--Number of sheds and garages is the choice</t>
+  </si>
+  <si>
+    <t>&lt;--start with guesses</t>
+  </si>
+  <si>
+    <t>Step 2: objective function interms of the choice vars</t>
+  </si>
+  <si>
+    <t>Value of the constraint</t>
+  </si>
+  <si>
+    <t>framing constraint</t>
+  </si>
+  <si>
+    <t>roofing constraint (hours)</t>
+  </si>
+  <si>
+    <t>80&gt;=4*sheds+10*garages</t>
+  </si>
+  <si>
+    <t>74&gt;=5*sheds+7*garages</t>
+  </si>
+  <si>
+    <t>Sheds</t>
+  </si>
+  <si>
+    <t>Framing Contraint</t>
+  </si>
+  <si>
+    <t>Roofing Constraint</t>
   </si>
 </sst>
 </file>
@@ -342,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -353,6 +389,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,6 +421,61 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Possible Production Plans</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -391,7 +483,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -399,49 +491,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>frame const</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'E2 blank'!$B$13:$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4678-714B-9DB8-904E2962C3F8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'E2 blank'!$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>roof const</c:v>
+                  <c:v>Framing Contraint</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -458,19 +508,319 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'E2 blank'!$A$13:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'E2 blank'!$B$13:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A99-A943-94E1-B620B5960862}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E2 blank'!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Roofing Constraint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'E2 blank'!$A$13:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'E2 blank'!$C$13:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9.8571428571428577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1428571428571423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4285714285714288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1428571428571432</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.7142857142857144</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4678-714B-9DB8-904E2962C3F8}"/>
+              <c16:uniqueId val="{00000002-8A99-A943-94E1-B620B5960862}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -483,16 +833,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1737674703"/>
-        <c:axId val="1738340271"/>
+        <c:axId val="344114272"/>
+        <c:axId val="595408303"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1737674703"/>
+        <c:axId val="344114272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sheds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -529,7 +935,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1738340271"/>
+        <c:crossAx val="595408303"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -537,7 +943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1738340271"/>
+        <c:axId val="595408303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -557,6 +963,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Garages</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -588,7 +1049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1737674703"/>
+        <c:crossAx val="344114272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -600,6 +1061,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2155,28 +2647,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>494632</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>112295</xdr:rowOff>
+      <xdr:colOff>663864</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>93579</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>48126</xdr:rowOff>
+      <xdr:colOff>282864</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>35213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4808AF37-9A9F-594F-9079-A4F4DB5F3A3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A56CCE2-2767-F937-DE09-6BC4FAEF9148}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2531,10 +3021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5104249-C563-C245-80DF-01B43C5C87B7}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2542,165 +3032,387 @@
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>8.1818181818181834</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.7272727272727266</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>570</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <f>B4*B3</f>
+        <v>2454.545454545455</v>
+      </c>
+      <c r="C5">
+        <f>C4*C3</f>
+        <v>2694.545454545454</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <f>SUM(B5:C5)</f>
+        <v>5149.090909090909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <f>4*B3+10*C3</f>
+        <v>80</v>
+      </c>
+      <c r="C9" s="7">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
+        <f>5*B3+7*C3</f>
+        <v>74</v>
+      </c>
+      <c r="C10" s="7">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f>(80-4*A13)/10</f>
+        <v>7.6</v>
+      </c>
+      <c r="C13">
+        <f>(74-5*A13)/7</f>
+        <v>9.8571428571428577</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <f t="shared" ref="B14:B32" si="0">(80-4*A14)/10</f>
+        <v>7.2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C32" si="1">(74-5*A14)/7</f>
+        <v>9.1428571428571423</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>8.4285714285714288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>7.7142857142857144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>6.2857142857142856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>5.5714285714285712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>4.8571428571428568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>4.1428571428571432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>-0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>-0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>-1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>-2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>20</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>-3.7142857142857144</v>
       </c>
     </row>
   </sheetData>
@@ -2713,8 +3425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431352B3-90D6-6C42-8907-460D7ACBF989}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/assets/slides/acct3210/S5/E2.xlsx
+++ b/assets/slides/acct3210/S5/E2.xlsx
@@ -1,87 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmlaoibhtighe/ArthurHowardMorris.github.io/assets/slides/acct3210/S5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B452DE76-8950-1D41-8117-036FEC157967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088C6B13-2128-9D46-B6B2-9EE6926E3824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20940" xr2:uid="{2705985C-3817-8A49-B643-240FB205B502}"/>
   </bookViews>
   <sheets>
     <sheet name="E2 blank" sheetId="4" r:id="rId1"/>
-    <sheet name="E2 solution" sheetId="1" r:id="rId2"/>
-    <sheet name="Answer Report E2" sheetId="2" r:id="rId3"/>
+    <sheet name="E2 filled in" sheetId="5" r:id="rId2"/>
+    <sheet name="E2 solution" sheetId="1" r:id="rId3"/>
+    <sheet name="Answer Report 1" sheetId="6" r:id="rId4"/>
+    <sheet name="Sensitivity Report 1" sheetId="7" r:id="rId5"/>
+    <sheet name="Limits Report 1" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'E2 blank'!$B$3:$C$3</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'E2 solution'!$B$3:$C$3</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'E2 filled in'!$B$3:$C$3</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'E2 solution'!$B$3:$C$3</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'E2 blank'!$B$10</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'E2 solution'!$B$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'E2 filled in'!$B$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'E2 solution'!$B$10</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'E2 blank'!$B$9</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'E2 solution'!$B$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'E2 filled in'!$B$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'E2 solution'!$B$9</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'E2 blank'!$B$6</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'E2 solution'!$B$6</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'E2 filled in'!$B$6</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'E2 solution'!$B$6</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'E2 blank'!$C$10</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'E2 solution'!$C$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'E2 filled in'!$C$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'E2 solution'!$C$10</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'E2 blank'!$C$9</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'E2 solution'!$C$9</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'E2 filled in'!$C$9</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'E2 solution'!$C$9</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -104,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="79">
   <si>
     <t>Choice variables</t>
   </si>
@@ -136,15 +171,6 @@
     <t>garages</t>
   </si>
   <si>
-    <t>Microsoft Excel 16.70 Answer Report</t>
-  </si>
-  <si>
-    <t>Worksheet: [Book2]Sheet1</t>
-  </si>
-  <si>
-    <t>Report Created: 2/21/23 12:55:27 PM</t>
-  </si>
-  <si>
     <t>Result: Solver found a solution.  All constraints and optimality conditions are satisfied.</t>
   </si>
   <si>
@@ -154,18 +180,12 @@
     <t>Engine: Simplex LP</t>
   </si>
   <si>
-    <t>Solution Time: 492.262 Seconds.</t>
-  </si>
-  <si>
     <t>Iterations: 2 Subproblems: 0</t>
   </si>
   <si>
     <t>Solver Options</t>
   </si>
   <si>
-    <t>Max Time Unlimited, Iterations Unlimited, Precision 1E-06, Use Automatic Scaling</t>
-  </si>
-  <si>
     <t>Max Subproblems Unlimited, Max Integer Sols Unlimited, Integer Tolerance 1%, Assume NonNegative</t>
   </si>
   <si>
@@ -278,13 +298,91 @@
   </si>
   <si>
     <t>Roofing Constraint</t>
+  </si>
+  <si>
+    <t>Possible Production Plans:</t>
+  </si>
+  <si>
+    <t>&lt;-- Objective</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.105 Answer Report</t>
+  </si>
+  <si>
+    <t>Worksheet: [E2.xlsx]E2 solution</t>
+  </si>
+  <si>
+    <t>Report Created: 2/11/26 9:02:09 AM</t>
+  </si>
+  <si>
+    <t>Solution Time: 49.47 Seconds.</t>
+  </si>
+  <si>
+    <t>Max Time Unlimited, Iterations Unlimited, Precision 0.000001, Use Automatic Scaling</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.105 Sensitivity Report</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Allowable</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>R.H. Side</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.105 Limits Report</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Upper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -304,6 +402,24 @@
       <b/>
       <sz val="12"/>
       <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -335,7 +451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -374,22 +490,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,7 +632,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'E2 blank'!$B$12</c:f>
+              <c:f>'E2 blank'!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -510,7 +655,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'E2 blank'!$A$13:$A$32</c:f>
+              <c:f>'E2 blank'!$A$14:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -579,70 +724,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'E2 blank'!$B$13:$B$32</c:f>
+              <c:f>'E2 blank'!$B$14:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -658,7 +743,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'E2 blank'!$C$12</c:f>
+              <c:f>'E2 blank'!$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -681,7 +766,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'E2 blank'!$A$13:$A$32</c:f>
+              <c:f>'E2 blank'!$A$14:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -750,70 +835,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'E2 blank'!$C$13:$C$32</c:f>
+              <c:f>'E2 blank'!$C$14:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>9.8571428571428577</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.1428571428571423</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.4285714285714288</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.7142857142857144</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.2857142857142856</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.5714285714285712</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.8571428571428568</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.1428571428571432</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.4285714285714284</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7142857142857144</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2857142857142858</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.8571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1.5714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-2.2857142857142856</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-3.7142857142857144</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1094,6 +1119,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1101,7 +1127,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1137,6 +1162,735 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Possible Production Plans</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E2 filled in'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Framing Contraint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'E2 filled in'!$A$15:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'E2 filled in'!$B$15:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FB1-5044-B6BB-37C2D2ECE25F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'E2 filled in'!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Roofing Constraint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'E2 filled in'!$A$15:$A$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'E2 filled in'!$C$15:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9.8571428571428577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1428571428571423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4285714285714288</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1428571428571432</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.7142857142857144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3FB1-5044-B6BB-37C2D2ECE25F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="344114272"/>
+        <c:axId val="595408303"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="344114272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sheds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="595408303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="595408303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Garages</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344114272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1488,6 +2242,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1495,7 +2250,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1610,6 +2364,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2642,20 +3436,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>663864</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>427182</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>22514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>282864</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>46182</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>35213</xdr:rowOff>
+      <xdr:rowOff>139123</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2684,6 +3994,49 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352137</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>184149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>796637</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>98713</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6A07B2-C7F9-0940-ADF1-71AEBE1AB2BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3021,10 +4374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5104249-C563-C245-80DF-01B43C5C87B7}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3037,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3047,59 +4400,38 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>47</v>
+      <c r="D2" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>8.1818181818181834</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4.7272727272727266</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>48</v>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>300</v>
-      </c>
-      <c r="C4">
-        <v>570</v>
-      </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <f>B4*B3</f>
-        <v>2454.545454545455</v>
-      </c>
-      <c r="C5">
-        <f>C4*C3</f>
-        <v>2694.545454545454</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <f>SUM(B5:C5)</f>
-        <v>5149.090909090909</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
@@ -3111,322 +4443,578 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="7">
-        <f>4*B3+10*C3</f>
-        <v>80</v>
-      </c>
-      <c r="C9" s="7">
-        <v>80</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="7">
-        <f>5*B3+7*C3</f>
-        <v>74</v>
-      </c>
-      <c r="C10" s="7">
-        <v>74</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C13" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <f>(80-4*A13)/10</f>
-        <v>7.6</v>
-      </c>
-      <c r="C13">
-        <f>(74-5*A13)/7</f>
-        <v>9.8571428571428577</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ref="B14:B32" si="0">(80-4*A14)/10</f>
-        <v>7.2</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ref="C14:C32" si="1">(74-5*A14)/7</f>
-        <v>9.1428571428571423</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>6.8</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>8.4285714285714288</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>4</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>6.4</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>7.7142857142857144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>5</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>6</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>5.6</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>6.2857142857142856</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>5.2</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>5.5714285714285712</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>8</v>
       </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>4.8571428571428568</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>9</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>4.1428571428571432</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>10</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>3.4285714285714284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>11</v>
       </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>3.6</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>2.7142857142857144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>12</v>
       </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>13</v>
       </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>1.2857142857142858</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>14</v>
       </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="1"/>
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>15</v>
       </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>-0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>16</v>
       </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="1"/>
-        <v>-0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>17</v>
       </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="1"/>
-        <v>-1.5714285714285714</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>18</v>
       </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="1"/>
-        <v>-2.2857142857142856</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>19</v>
       </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>20</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
-        <v>-3.7142857142857144</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01B1A7F-B9BD-8F4B-9900-06495F2EDCD8}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>570</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>B4*B3</f>
+        <v>300</v>
+      </c>
+      <c r="C5">
+        <f>C4*C3</f>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <f>SUM(B5:C5)</f>
+        <v>870</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="4">
+        <f>4*B3+10*C3</f>
+        <v>14</v>
+      </c>
+      <c r="C9" s="4">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="4">
+        <f>5*B3+7*C3</f>
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f>(80-4*A15)/10</f>
+        <v>7.6</v>
+      </c>
+      <c r="C15">
+        <f>(74-5*A15)/7</f>
+        <v>9.8571428571428577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ref="B16:B34" si="0">(80-4*A16)/10</f>
+        <v>7.2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:C34" si="1">(74-5*A16)/7</f>
+        <v>9.1428571428571423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>8.4285714285714288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>7.7142857142857144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>6.2857142857142856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>5.5714285714285712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>4.8571428571428568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>4.1428571428571432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>2.7142857142857144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>-0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>-0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>-1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>-2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>-3.7142857142857144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431352B3-90D6-6C42-8907-460D7ACBF989}">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3505,29 +5093,29 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9">
+      <c r="B9" s="4">
         <f>4*B3+10*C3</f>
         <v>80</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10">
+      <c r="B10" s="4">
         <f>5*B3+7*C3</f>
         <v>74</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3796,8 +5384,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587B4097-1C5A-634F-B034-281F763A6B3D}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBA9470-258D-5645-A09B-5E4915729358}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -3815,214 +5403,600 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>25</v>
+      <c r="B15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="4">
-        <v>870</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="B16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="11">
+        <v>5149.090909090909</v>
+      </c>
+      <c r="E16" s="11">
         <v>5149.090909090909</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="B21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="12">
         <v>8.1818181818181834</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>36</v>
+      <c r="E21" s="12">
+        <v>8.1818181818181834</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="B22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="11">
         <v>4.7272727272727266</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>36</v>
+      <c r="E22" s="11">
+        <v>4.7272727272727266</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="12">
+        <v>74</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="11">
+        <v>80</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756F9215-8D55-C941-B845-F8892B224C1F}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="10">
+        <v>8.1818181818181834</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>300</v>
+      </c>
+      <c r="G9" s="10">
+        <v>107.14285714285714</v>
+      </c>
+      <c r="H9" s="10">
+        <v>71.999999999999986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="8">
+        <v>4.7272727272727266</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>570</v>
+      </c>
+      <c r="G10" s="8">
+        <v>179.99999999999997</v>
+      </c>
+      <c r="H10" s="8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="10">
+        <v>74</v>
+      </c>
+      <c r="E15" s="10">
+        <v>32.727272727272727</v>
+      </c>
+      <c r="F15" s="10">
+        <v>74</v>
+      </c>
+      <c r="G15" s="10">
+        <v>25.999999999999993</v>
+      </c>
+      <c r="H15" s="10">
+        <v>18.000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="8">
+        <v>80</v>
+      </c>
+      <c r="E16" s="8">
+        <v>34.090909090909093</v>
+      </c>
+      <c r="F16" s="8">
+        <v>80</v>
+      </c>
+      <c r="G16" s="8">
+        <v>25.714285714285715</v>
+      </c>
+      <c r="H16" s="8">
+        <v>20.799999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB6CDE8-1D79-EA4C-A658-902E12326605}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="D8" s="11">
+        <v>5149.090909090909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="C13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="6">
-        <v>74</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="D13" s="12">
+        <v>8.1818181818181834</v>
+      </c>
+      <c r="F13" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="4">
-        <v>80</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="4">
+      <c r="G13" s="12">
+        <v>85</v>
+      </c>
+      <c r="I13" s="12">
+        <v>250</v>
+      </c>
+      <c r="J13" s="12">
+        <v>18835</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="11">
+        <v>4.7272727272727266</v>
+      </c>
+      <c r="F14" s="11">
         <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <v>110</v>
+      </c>
+      <c r="I14" s="11">
+        <v>398.5</v>
+      </c>
+      <c r="J14" s="11">
+        <v>20035</v>
       </c>
     </row>
   </sheetData>
